--- a/test/zipupload.xlsx
+++ b/test/zipupload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhiraj Das\Documents\DMSBackend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6AA5470-CE78-4E55-A30B-B3D8EA66D755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DDA5B3-858E-4D68-92DC-E89C98BE1FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="4440" windowWidth="18900" windowHeight="11055" xr2:uid="{821D1EAA-1C88-42BF-895F-F2A05B9FA2D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{821D1EAA-1C88-42BF-895F-F2A05B9FA2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>File1</t>
   </si>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981F7557-E867-4D4D-B495-82132341CA54}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,22 +412,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
